--- a/output_analysis/START_1_SEC_6.0_ENERGY_1.0_EV-FACTOR_11_EV_25_FLEX_300_TPS.txt.xlsx
+++ b/output_analysis/START_1_SEC_6.0_ENERGY_1.0_EV-FACTOR_11_EV_25_FLEX_300_TPS.txt.xlsx
@@ -434,310 +434,315 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle-ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Vehicle-ID</t>
+          <t>Trips</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Trips</t>
+          <t>Number of Trips</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Distances</t>
+          <t>Sequential Coverage</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Individual Coverages</t>
+          <t>Ride-share Coverage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Individual Energy</t>
+          <t>Individual Coverage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Energy</t>
+          <t>Individual Cars</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1 3 20 22</t>
-        </is>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1 17 23 33 171</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E2" t="n">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>102</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>4 9 13 46 70</t>
-        </is>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2 8 26 32 158</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E3" t="n">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="G3" t="n">
-        <v>128</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5 17 37 72 296</t>
-        </is>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>7 14 21 74 82 254</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E4" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>95</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>15 25 27 159 263</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>110</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>24 50 56 125 155 175 293</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>99</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>17</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>28 53 63 113 124</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>16</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>29 223 267</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>7 10 38 97</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>100</v>
-      </c>
-      <c r="E5" t="n">
-        <v>105</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="D8" t="n">
+        <v>91</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>36 43 47 216 242</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>94</v>
+      </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>39 66 96 205 233</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>118</v>
+      </c>
+      <c r="E10" t="n">
+        <v>96</v>
+      </c>
+      <c r="F10" t="n">
+        <v>22</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>55 85 154 163</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="D11" t="n">
+        <v>123</v>
+      </c>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" t="n">
+        <v>11</v>
+      </c>
+      <c r="G11" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>11 30 31 111 119</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>100</v>
-      </c>
-      <c r="E6" t="n">
-        <v>104</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>14 27 40 48</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>100</v>
-      </c>
-      <c r="E7" t="n">
-        <v>111</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>15 51 54 78 161 163 254</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" t="n">
-        <v>157</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>16 24 49 180 214</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>100</v>
-      </c>
-      <c r="E9" t="n">
-        <v>100</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>19 25 39 76 116</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>100</v>
-      </c>
-      <c r="E10" t="n">
-        <v>112</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>21 87 122 144</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>100</v>
-      </c>
-      <c r="E11" t="n">
-        <v>111</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>111</v>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>43 45 47 120</t>
-        </is>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>61 133 156 162</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="E12" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
